--- a/biology/Médecine/Institut_universitaire_en_santé_mentale_de_Québec/Institut_universitaire_en_santé_mentale_de_Québec.xlsx
+++ b/biology/Médecine/Institut_universitaire_en_santé_mentale_de_Québec/Institut_universitaire_en_santé_mentale_de_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_universitaire_en_sant%C3%A9_mentale_de_Qu%C3%A9bec</t>
+          <t>Institut_universitaire_en_santé_mentale_de_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut universitaire en santé mentale de Québec (anciennement le Centre hospitalier Robert-Giffard) est un hôpital psychiatrique de Québec offrant des services spécialisés à des adultes vivant avec des troubles de santé mentale. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_universitaire_en_sant%C3%A9_mentale_de_Qu%C3%A9bec</t>
+          <t>Institut_universitaire_en_santé_mentale_de_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,24 +526,60 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15 septembre 1845 - Ouverture du premier établissement psychiatrique au Québec, l'Asile provisoire de Beauport.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 septembre 1845 - Ouverture du premier établissement psychiatrique au Québec, l'Asile provisoire de Beauport.
 1850 - L’établissement s'agrandit et devient le Quebec Lunatic Asylum.
 1865 - L’établissement change à nouveau de nom et devient l’Asile des aliénés de Québec.
 1875 - Dans la nuit du 29 au 30 janvier, un incendie ravage l'aile des femmes. 7 corps sont retrouvés mais 19 autres personnes manquent à l'appel.
 1893 - Le gouvernement confie le soin, la garde et l’entretien des malades de l’asile à la congrégation des Sœurs de la charité de Québec.
-1897 - 9 janvier - Érection de la Paroisse de Saint-Michel-Archange de la scission des municipalités de Beauport et de Limoilou. Le territoire constitue à celui des édifices de l'Asile[1].
+1897 - 9 janvier - Érection de la Paroisse de Saint-Michel-Archange de la scission des municipalités de Beauport et de Limoilou. Le territoire constitue à celui des édifices de l'Asile.
 1912 - L’Asile des aliénés de Québec devient l’Asile Saint-Michel-Archange.
 1914 - L'asile devient Hôpital Saint-Michel-Archange ; on y pratique une formation universitaire.
 1969 - 15 mars - Modification du statut de la Paroisse de Saint-Michel-Archange qui devient la municipalité de Saint-Michel-Archange
-1976 - 1er janvier - Annexion de la municipalité de Saint-Michel-Archange à la ville de Beauport[2].
+1976 - 1er janvier - Annexion de la municipalité de Saint-Michel-Archange à la ville de Beauport.
 1976 - L’hôpital prend le nom de Centre hospitalier Robert-Giffard.
 1997 - Le gouvernement prend possession de l’établissement, administré par la communauté des Sœurs de la Charité de Québec depuis plus de 100 ans.
 2009 - L'établissement devient officiellement l'Institut universitaire en santé mentale de Québec.
-2015 - L'établissement est fusionné au nouveau Centre intégré universitaire de santé et de services sociaux de la Capitale-Nationale (CIUSSS de la Capitale-Nationale).
-Administration
-Liste des Sœurs supérieures et Directeurs-généraux responsable de l'établissement[3]
+2015 - L'établissement est fusionné au nouveau Centre intégré universitaire de santé et de services sociaux de la Capitale-Nationale (CIUSSS de la Capitale-Nationale).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Institut_universitaire_en_santé_mentale_de_Québec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_universitaire_en_sant%C3%A9_mentale_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des Sœurs supérieures et Directeurs-généraux responsable de l'établissement
 1893-1904 : Sœur Marie-Du-Sacré-Cœur - (Adéline Gauvin)
 1904-1906 : Sœur Sainte-Alice - (Célina Drolet)
 1906-1910 : Sœur Sainte-Euphémie - (Mathilda Hamelin)
